--- a/tests/Feature/config/mortgage_realistic.xlsx
+++ b/tests/Feature/config/mortgage_realistic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>private</t>
   </si>
@@ -226,48 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Asset rule: Using current amount: 7508654 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7884087 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8278291 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8692206 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 9126816 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 9583157 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 10062315 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 10565431 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 11093703 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 11648388 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 12230807 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 12842347 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 13484464 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 14158687 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 14866621 * 1</t>
   </si>
   <si>
     <t>ExtraDownpayment</t>
@@ -715,7 +673,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,7 +700,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -3727,1309 +3685,639 @@
       <c r="AM37"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>23652261.0</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="1">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5">
         <v>23652261.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>9000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>9447685.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>5913065.25</v>
       </c>
-      <c r="V38" s="2"/>
-      <c r="W38" s="1">
+      <c r="V38" s="16"/>
+      <c r="W38" s="5">
         <v>42130.6525</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="X38" s="16"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-51500.4006</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-5997991.5898</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>24834873.0</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1">
-        <v>24834873.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>6208718.25</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="1">
-        <v>45087.1825</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-56940.4158</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-6054932.0056</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>26076618.0</v>
-      </c>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11">
-        <v>26076618.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>9000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>9447685.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>6519154.5</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="11">
-        <v>48191.545</v>
-      </c>
+      <c r="W40" s="11"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11"/>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-62652.4428</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-6117584.4484</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>27380448.0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1">
-        <v>27380448.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>6845112.0</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="1">
-        <v>51451.12</v>
-      </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-68650.0608</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-6186234.5092</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41"/>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>28749471.0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1">
-        <v>28749471.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>7187367.75</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="1">
-        <v>54873.6775</v>
-      </c>
+      <c r="W42" s="1"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-74947.5666</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-6261182.0758</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42"/>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
+      <c r="I43" s="1"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>30186945.0</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1">
-        <v>30186945.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>7546736.25</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="1">
-        <v>58467.3625</v>
-      </c>
+      <c r="W43" s="1"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-81559.947</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-6342742.0228</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43"/>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>31696293.0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1">
-        <v>31696293.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>7924073.25</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="1">
-        <v>62240.7325</v>
-      </c>
+      <c r="W44" s="1"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-88502.9478</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-6431244.9706</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44"/>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>33281109.0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1">
-        <v>33281109.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>8320277.25</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="1">
-        <v>66202.7725</v>
-      </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-95793.1014</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-6527038.072</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45"/>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>34945164.0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1">
-        <v>34945164.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>8736291.0</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="1">
-        <v>70362.91</v>
-      </c>
+      <c r="W46" s="1"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-103447.7544</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-6630485.8264</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46"/>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
+      <c r="I47" s="1"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>36692421.0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1">
-        <v>36692421.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>9173105.25</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="1">
-        <v>74731.0525</v>
-      </c>
+      <c r="W47" s="1"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-111485.1366</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-6741970.963</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47"/>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
+      <c r="I48" s="1"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>38527041.0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1">
-        <v>38527041.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>9631760.25</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="1">
-        <v>79317.6025</v>
-      </c>
+      <c r="W48" s="1"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-119924.3886</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-6861895.3516</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>40453392.0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1">
-        <v>40453392.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>10113348.0</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="1">
-        <v>84133.48</v>
-      </c>
+      <c r="W49" s="1"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-128785.6032</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-6990680.9548</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49"/>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
+      <c r="I50" s="1"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>42476061.0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1">
-        <v>42476061.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>10619015.25</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="1">
-        <v>89190.1525</v>
-      </c>
+      <c r="W50" s="1"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-138089.8806</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-7128770.8354</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>44599863.0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1">
-        <v>44599863.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>9447685.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>11149965.75</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="1">
-        <v>94499.6575</v>
-      </c>
+      <c r="W51" s="1"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-147859.3698</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-7276630.2052</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>46829856.0</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="5">
-        <v>46829856.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>9000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>9447685.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>11707464.0</v>
-      </c>
-      <c r="V52" s="16"/>
-      <c r="W52" s="5">
-        <v>100074.64</v>
-      </c>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-158117.3376</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-7434747.5428</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -6151,7 +5439,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6178,7 +5466,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -9319,114 +8607,103 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="16">
         <v>0.05</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>3529705.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>1971021.75</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="5">
         <v>2710.2175</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>14456.5827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-17166.8002</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-2303939.1966</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -9435,89 +8712,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>8278291.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R39" s="1">
-        <v>8278291.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>2069572.75</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>3695.7275</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>15284.4111</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>8278291.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-18980.1386</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-2322919.3352</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -9526,89 +8752,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="R40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>3529705.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>2173051.5</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>4730.515</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>16153.6326</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-20884.1476</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-2343803.4828</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -9617,89 +8792,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>9126816.0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R41" s="1">
-        <v>9126816.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>2281704.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>5817.04</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>17066.3136</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>9126816.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-22883.3536</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-2366686.8364</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -9708,89 +8831,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>9583157.0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R42" s="1">
-        <v>9583157.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>2395789.25</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>6957.8925</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>18024.6297</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>9583157.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-24982.5222</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-2391669.3586</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -9799,89 +8870,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>10062315.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R43" s="1">
-        <v>10062315.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>2515578.75</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>8155.7875</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>19030.8615</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>10062315.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-27186.649</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-2418856.0076</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -9890,89 +8909,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>10565431.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R44" s="1">
-        <v>10565431.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>2641357.75</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>9413.5775</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>20087.4051</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>10565431.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-29500.9826</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-2448356.9902</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -9981,89 +8948,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>11093703.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R45" s="1">
-        <v>11093703.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>2773425.75</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>10734.2575</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>21196.7763</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>11093703.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-31931.0338</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-2480288.024</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -10072,89 +8987,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>11648388.0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R46" s="1">
-        <v>11648388.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2912097.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>12120.97</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>22361.6148</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>11648388.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-34482.5848</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-2514770.6088</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -10163,89 +9026,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>12230807.0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R47" s="1">
-        <v>12230807.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>3057701.75</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>13577.0175</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>23584.6947</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>12230807.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-37161.7122</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-2551932.321</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -10254,89 +9065,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>12842347.0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R48" s="1">
-        <v>12842347.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>3210586.75</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>15105.8675</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>24868.9287</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>12842347.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-39974.7962</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-2591907.1172</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -10345,89 +9104,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>13484464.0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R49" s="1">
-        <v>13484464.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>3371116.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>16711.16</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>26217.3744</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>13484464.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-42928.5344</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-2634835.6516</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -10436,89 +9143,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>14158687.0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R50" s="1">
-        <v>14158687.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>3539671.75</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>18396.7175</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>27633.2427</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>14158687.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-46029.9602</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-2680865.6118</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -10527,161 +9182,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>14866621.0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R51" s="1">
-        <v>14866621.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>3529705.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>3716655.25</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>20166.5525</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>29119.9041</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>14866621.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-49286.4566</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-2730152.0684</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="R52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>3529705.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>3902488.0</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>22024.88</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>30680.8992</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-52705.7792</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-2782857.8476</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -11803,7 +10365,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11830,7 +10392,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -11848,7 +10410,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -11856,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11880,7 +10442,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -13132,7 +11694,7 @@
         <v>0.97</v>
       </c>
       <c r="AM18" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -13235,7 +11797,7 @@
       <c r="AK19" s="8"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -13338,7 +11900,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -13441,7 +12003,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -13544,7 +12106,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -13647,7 +12209,7 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -13750,7 +12312,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -13853,7 +12415,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -13956,7 +12518,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -14047,7 +12609,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -14961,114 +13523,103 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="16">
         <v>0.05</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>2647551.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>1971021.75</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="5">
         <v>2710.2175</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>14456.5827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-17166.8002</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-1535587.1966</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -15077,89 +13628,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>8278291.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R39" s="1">
-        <v>8278291.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>2069572.75</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>3695.7275</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>15284.4111</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>8278291.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-18980.1386</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-1554567.3352</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -15168,89 +13668,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="R40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>2647551.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>2173051.5</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>4730.515</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>16153.6326</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-20884.1476</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-1575451.4828</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -15259,89 +13708,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>9126816.0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R41" s="1">
-        <v>9126816.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>2281704.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>5817.04</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>17066.3136</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>9126816.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-22883.3536</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-1598334.8364</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -15350,89 +13747,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>9583157.0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R42" s="1">
-        <v>9583157.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>2395789.25</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>6957.8925</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>18024.6297</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>9583157.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-24982.5222</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-1623317.3586</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -15441,89 +13786,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>10062315.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R43" s="1">
-        <v>10062315.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>2515578.75</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>8155.7875</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>19030.8615</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>10062315.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-27186.649</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-1650504.0076</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -15532,89 +13825,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>10565431.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R44" s="1">
-        <v>10565431.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>2641357.75</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>9413.5775</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>20087.4051</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>10565431.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-29500.9826</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-1680004.9902</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -15623,89 +13864,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>11093703.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R45" s="1">
-        <v>11093703.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>2773425.75</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>10734.2575</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>21196.7763</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>11093703.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-31931.0338</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-1711936.024</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -15714,89 +13903,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>11648388.0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R46" s="1">
-        <v>11648388.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2912097.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>12120.97</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>22361.6148</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>11648388.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-34482.5848</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-1746418.6088</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -15805,89 +13942,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>12230807.0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R47" s="1">
-        <v>12230807.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>3057701.75</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>13577.0175</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>23584.6947</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>12230807.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-37161.7122</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-1783580.321</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -15896,89 +13981,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>12842347.0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R48" s="1">
-        <v>12842347.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>3210586.75</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>15105.8675</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>24868.9287</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>12842347.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-39974.7962</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-1823555.1172</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -15987,89 +14020,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>13484464.0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R49" s="1">
-        <v>13484464.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>3371116.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>16711.16</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>26217.3744</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>13484464.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-42928.5344</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-1866483.6516</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -16078,89 +14059,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>14158687.0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R50" s="1">
-        <v>14158687.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>3539671.75</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>18396.7175</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>27633.2427</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>14158687.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-46029.9602</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-1912513.6118</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -16169,161 +14098,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>14866621.0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R51" s="1">
-        <v>14866621.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>2647551.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>3716655.25</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>20166.5525</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>29119.9041</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>14866621.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-49286.4566</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-1961800.0684</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="R52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>2647551.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>3902488.0</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>22024.88</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>30680.8992</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-52705.7792</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-2014505.8476</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -17445,7 +15281,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17472,7 +15308,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -17490,7 +15326,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -17498,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -17522,7 +15358,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -20613,114 +18449,103 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="16">
         <v>0.05</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>3270429.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>1971021.75</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="5">
         <v>2710.2175</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>14456.5827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="5">
         <v>7884087.0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-17166.8002</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-2158465.1966</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -20729,89 +18554,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>8278291.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R39" s="1">
-        <v>8278291.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>2069572.75</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>3695.7275</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>15284.4111</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>8278291.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-18980.1386</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-2177445.3352</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -20820,89 +18594,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="R40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>3270429.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>2173051.5</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>4730.515</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>16153.6326</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>8692206.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-20884.1476</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-2198329.4828</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -20911,89 +18634,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>9126816.0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R41" s="1">
-        <v>9126816.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>2281704.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>5817.04</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>17066.3136</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>9126816.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-22883.3536</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-2221212.8364</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -21002,89 +18673,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>9583157.0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R42" s="1">
-        <v>9583157.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>2395789.25</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>6957.8925</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>18024.6297</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>9583157.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-24982.5222</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-2246195.3586</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -21093,89 +18712,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>10062315.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R43" s="1">
-        <v>10062315.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>2515578.75</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>8155.7875</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>19030.8615</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>10062315.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-27186.649</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-2273382.0076</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -21184,89 +18751,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>10565431.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R44" s="1">
-        <v>10565431.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>2641357.75</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>9413.5775</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>20087.4051</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>10565431.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-29500.9826</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-2302882.9902</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -21275,89 +18790,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>11093703.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R45" s="1">
-        <v>11093703.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>2773425.75</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>10734.2575</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>21196.7763</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>11093703.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-31931.0338</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-2334814.024</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -21366,89 +18829,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>11648388.0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R46" s="1">
-        <v>11648388.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2912097.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>12120.97</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>22361.6148</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>11648388.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-34482.5848</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-2369296.6088</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -21457,89 +18868,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>12230807.0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R47" s="1">
-        <v>12230807.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>3057701.75</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>13577.0175</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>23584.6947</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>12230807.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-37161.7122</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-2406458.321</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -21548,89 +18907,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>12842347.0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R48" s="1">
-        <v>12842347.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>3210586.75</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>15105.8675</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>24868.9287</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>12842347.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-39974.7962</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-2446433.1172</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -21639,89 +18946,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>13484464.0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R49" s="1">
-        <v>13484464.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>3371116.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>16711.16</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>26217.3744</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>13484464.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-42928.5344</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-2489361.6516</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -21730,89 +18985,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>14158687.0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R50" s="1">
-        <v>14158687.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>3539671.75</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>18396.7175</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>27633.2427</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>14158687.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-46029.9602</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-2535391.6118</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -21821,161 +19024,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>14866621.0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R51" s="1">
-        <v>14866621.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>3270429.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>3716655.25</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>20166.5525</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>29119.9041</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>14866621.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-49286.4566</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-2584678.0684</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="R52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>3270429.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>3902488.0</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>22024.88</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>30680.8992</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>15609952.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-52705.7792</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-2637383.8476</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -23094,7 +20204,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -23107,7 +20217,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -23398,160 +20508,6 @@
         <v>100.0</v>
       </c>
       <c r="C38">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39">
-        <v>100.0</v>
-      </c>
-      <c r="C39">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>2045</v>
-      </c>
-      <c r="B40">
-        <v>100.0</v>
-      </c>
-      <c r="C40">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41">
-        <v>100.0</v>
-      </c>
-      <c r="C41">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42">
-        <v>100.0</v>
-      </c>
-      <c r="C42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43">
-        <v>100.0</v>
-      </c>
-      <c r="C43">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44">
-        <v>100.0</v>
-      </c>
-      <c r="C44">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45">
-        <v>100.0</v>
-      </c>
-      <c r="C45">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46">
-        <v>100.0</v>
-      </c>
-      <c r="C46">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47">
-        <v>100.0</v>
-      </c>
-      <c r="C47">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48">
-        <v>100.0</v>
-      </c>
-      <c r="C48">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49">
-        <v>100.0</v>
-      </c>
-      <c r="C49">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50">
-        <v>100.0</v>
-      </c>
-      <c r="C50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51">
-        <v>100.0</v>
-      </c>
-      <c r="C51">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>2057</v>
-      </c>
-      <c r="B52">
-        <v>100.0</v>
-      </c>
-      <c r="C52">
         <v>100.0</v>
       </c>
     </row>

--- a/tests/Feature/config/mortgage_realistic.xlsx
+++ b/tests/Feature/config/mortgage_realistic.xlsx
@@ -2240,10 +2240,10 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>-212712.0</v>
+        <v>-242869.0</v>
       </c>
       <c r="AH19" s="8">
-        <v>-420714.0</v>
+        <v>-450871.0</v>
       </c>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="8">
@@ -2335,10 +2335,10 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>-208979.6</v>
+        <v>-229504.6</v>
       </c>
       <c r="AH20" s="1">
-        <v>-629693.6</v>
+        <v>-680375.6</v>
       </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
@@ -2430,10 +2430,10 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>-205709.58</v>
+        <v>-218779.58</v>
       </c>
       <c r="AH21" s="1">
-        <v>-835403.18</v>
+        <v>-899155.18</v>
       </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
@@ -2525,10 +2525,10 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>-202902.759</v>
+        <v>-208903.759</v>
       </c>
       <c r="AH22" s="1">
-        <v>-1038305.939</v>
+        <v>-1108058.939</v>
       </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
@@ -2620,10 +2620,10 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>-197856.998</v>
+        <v>-194064.998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-1236162.937</v>
+        <v>-1302123.937</v>
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
@@ -2715,10 +2715,10 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>-198255.1979</v>
+        <v>-154856.1979</v>
       </c>
       <c r="AH24" s="1">
-        <v>-1434418.1349</v>
+        <v>-1456980.1349</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
@@ -2810,10 +2810,10 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>-198673.3079</v>
+        <v>-103297.3079</v>
       </c>
       <c r="AH25" s="1">
-        <v>-1633091.4428</v>
+        <v>-1560277.4428</v>
       </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
@@ -2905,10 +2905,10 @@
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
-        <v>-67919.3234</v>
+        <v>-31661.3234</v>
       </c>
       <c r="AH26" s="1">
-        <v>-1701010.7662</v>
+        <v>-1591938.7662</v>
       </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
@@ -3003,7 +3003,7 @@
         <v>9379.7098</v>
       </c>
       <c r="AH27" s="1">
-        <v>-1691631.0564</v>
+        <v>-1582559.0564</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
@@ -3098,7 +3098,7 @@
         <v>204746.6955</v>
       </c>
       <c r="AH28" s="1">
-        <v>-1486884.3609</v>
+        <v>-1377812.3609</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -3193,7 +3193,7 @@
         <v>208159.4808</v>
       </c>
       <c r="AH29" s="1">
-        <v>-1278724.8801</v>
+        <v>-1169652.8801</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -3288,7 +3288,7 @@
         <v>211610.854</v>
       </c>
       <c r="AH30" s="1">
-        <v>-1067114.0261</v>
+        <v>-958042.0261</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -3383,7 +3383,7 @@
         <v>215099.5467</v>
       </c>
       <c r="AH31" s="1">
-        <v>-852014.4794</v>
+        <v>-742942.4794</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -3478,7 +3478,7 @@
         <v>218625.2233</v>
       </c>
       <c r="AH32" s="1">
-        <v>-633389.2561</v>
+        <v>-524317.2561</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -3573,7 +3573,7 @@
         <v>222187.4852</v>
       </c>
       <c r="AH33" s="1">
-        <v>-411201.7709</v>
+        <v>-302129.7709</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -3668,7 +3668,7 @@
         <v>225782.8603</v>
       </c>
       <c r="AH34" s="1">
-        <v>-185418.9106</v>
+        <v>-76346.9106</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -3763,7 +3763,7 @@
         <v>229387.378</v>
       </c>
       <c r="AH35" s="1">
-        <v>43968.4674</v>
+        <v>153040.4674</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -3858,7 +3858,7 @@
         <v>232008.9446</v>
       </c>
       <c r="AH36" s="1">
-        <v>275977.412</v>
+        <v>385049.412</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -3953,7 +3953,7 @@
         <v>233948.1916</v>
       </c>
       <c r="AH37" s="1">
-        <v>509925.6036</v>
+        <v>618997.6036</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -4048,7 +4048,7 @@
         <v>235831.1998</v>
       </c>
       <c r="AH38" s="5">
-        <v>745756.8034</v>
+        <v>854828.8034</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
@@ -6916,10 +6916,10 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>0.0</v>
+        <v>-30157</v>
       </c>
       <c r="AH19" s="8">
-        <v>0.0</v>
+        <v>-30157.0</v>
       </c>
       <c r="AI19" s="9">
         <v>0.46294766666667</v>
@@ -7029,10 +7029,10 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>0.0</v>
+        <v>-20525</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.0</v>
+        <v>-50682.0</v>
       </c>
       <c r="AI20" s="2">
         <v>0.40253428571429</v>
@@ -7142,10 +7142,10 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>0.0</v>
+        <v>-13070</v>
       </c>
       <c r="AH21" s="1">
-        <v>0.0</v>
+        <v>-63752.0</v>
       </c>
       <c r="AI21" s="2">
         <v>0.3439313681028</v>
@@ -7255,10 +7255,10 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>0.0</v>
+        <v>-6001</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.0</v>
+        <v>-69753.0</v>
       </c>
       <c r="AI22" s="2">
         <v>0.28732361516035</v>
@@ -7368,10 +7368,10 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>3792</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.0</v>
+        <v>-65961.0</v>
       </c>
       <c r="AI23" s="2">
         <v>0.23238683248325</v>
@@ -7481,10 +7481,10 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>0</v>
+        <v>43399</v>
       </c>
       <c r="AH24" s="1">
-        <v>0.0</v>
+        <v>-22562.0</v>
       </c>
       <c r="AI24" s="2">
         <v>0.14633368548479</v>
@@ -7594,10 +7594,10 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>95376</v>
       </c>
       <c r="AH25" s="1">
-        <v>0.0</v>
+        <v>72814.0</v>
       </c>
       <c r="AI25" s="2">
         <v>0.073202982772125</v>
@@ -7707,10 +7707,10 @@
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
-        <v>131193.0</v>
+        <v>167451</v>
       </c>
       <c r="AH26" s="1">
-        <v>131193.0</v>
+        <v>240265.0</v>
       </c>
       <c r="AI26" s="2">
         <v>0.016848123362916</v>
@@ -7806,10 +7806,10 @@
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
-        <v>208953.0</v>
+        <v>208953</v>
       </c>
       <c r="AH27" s="1">
-        <v>340146.0</v>
+        <v>449218.0</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
@@ -7901,10 +7901,10 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
-        <v>212811.0</v>
+        <v>212811</v>
       </c>
       <c r="AH28" s="1">
-        <v>552957.0</v>
+        <v>662029.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -7996,10 +7996,10 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
-        <v>216732.0</v>
+        <v>216732</v>
       </c>
       <c r="AH29" s="1">
-        <v>769689.0</v>
+        <v>878761.0</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -8091,10 +8091,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
-        <v>220717.0</v>
+        <v>220717</v>
       </c>
       <c r="AH30" s="1">
-        <v>990406.0</v>
+        <v>1099478.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -8186,10 +8186,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
-        <v>224766.0</v>
+        <v>224766</v>
       </c>
       <c r="AH31" s="1">
-        <v>1215172.0</v>
+        <v>1324244.0</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -8281,10 +8281,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
-        <v>228880.0</v>
+        <v>228880</v>
       </c>
       <c r="AH32" s="1">
-        <v>1444052.0</v>
+        <v>1553124.0</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -8376,10 +8376,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
-        <v>233060.0</v>
+        <v>233060</v>
       </c>
       <c r="AH33" s="1">
-        <v>1677112.0</v>
+        <v>1786184.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -8471,10 +8471,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
-        <v>237304.0</v>
+        <v>237304</v>
       </c>
       <c r="AH34" s="1">
-        <v>1914416.0</v>
+        <v>2023488.0</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -8566,10 +8566,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
-        <v>241616.0</v>
+        <v>241616</v>
       </c>
       <c r="AH35" s="1">
-        <v>2156032.0</v>
+        <v>2265104.0</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -8661,10 +8661,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
-        <v>245804.0</v>
+        <v>245804</v>
       </c>
       <c r="AH36" s="1">
-        <v>2401836.0</v>
+        <v>2510908.0</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -8756,10 +8756,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
-        <v>249388.0</v>
+        <v>249388</v>
       </c>
       <c r="AH37" s="1">
-        <v>2651224.0</v>
+        <v>2760296.0</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -8851,10 +8851,10 @@
       </c>
       <c r="AF38" s="16"/>
       <c r="AG38" s="5">
-        <v>252998.0</v>
+        <v>252998</v>
       </c>
       <c r="AH38" s="5">
-        <v>2904222.0</v>
+        <v>3013294.0</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
